--- a/biology/Botanique/Dillwynia_retorta/Dillwynia_retorta.xlsx
+++ b/biology/Botanique/Dillwynia_retorta/Dillwynia_retorta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dillwynia retorta est une espèce de plante de la famille des Fabacées, endémique d'Australie. Il forme des buissons d'environ 3 m de haut. Les feuilles, d'environ 4 à 12 mm de long sont tordues en spirale, ce qui leur donne la forme d'aiguille. Comme beaucoup d'autres espèces de Dillwynia, il présente des fleurs jaunes avec des marques rouges en leur centre.
 On rencontre cette espèce en Nouvelle-Galles du Sud et au Queensland.
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (5 août 2013)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (5 août 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Dillwynia retorta var. phylicoides (A. Cunn.) Joy Thomps.</t>
         </is>
       </c>
